--- a/procesador/tokens.xlsx
+++ b/procesador/tokens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Token</t>
   </si>
@@ -44,15 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">"[_a-zA-Z][_a-zA-Z0-9]*"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_TIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: int, 1: real, 2: bool, 3: vec2, 4: vec3, 5: mat2, 6: mat3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("int", "real", "bool", "vec2", "vec3", "mat2", "mat3")</t>
   </si>
   <si>
     <t xml:space="preserve">COMA</t>
@@ -298,10 +289,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.32"/>
@@ -345,202 +336,189 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>259</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>261</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>262</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>263</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>264</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>265</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>266</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>267</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>268</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>269</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>270</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>271</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>272</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>273</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>274</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/procesador/tokens.xlsx
+++ b/procesador/tokens.xlsx
@@ -73,10 +73,10 @@
     <t xml:space="preserve">OP_BINARIO</t>
   </si>
   <si>
-    <t xml:space="preserve">0: +, 1: *, 2: /, 3: %, 4: and, 5: or, 6: &gt;, 7: &lt;, 8: &lt;=, 9: &gt;=, 10: ==, 11: !=, 12: ^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("+" | "*" | "/" | "%" | "and" | "or" | "&gt;" | "&lt;" | "&lt;=" | "&gt;=" | "==" | "!=" | "^")</t>
+    <t xml:space="preserve">0: +, 1: *, 2: /, 3: and, 4: or, 5: &gt;, 6: &lt;, 7: &lt;=, 8: &gt;=, 9: ==, 10: !=, 11: ^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("+" | "*" | "/" | "and" | "or" | "&gt;" | "&lt;" | "&lt;=" | "&gt;=" | "==" | "!=" | "^")</t>
   </si>
   <si>
     <t xml:space="preserve">COR_IZQ</t>
@@ -271,31 +271,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
